--- a/pred_ohlcv/54_21/2020-01-25 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 IPX ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>1534629.329526727</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1470678.995526727</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1472357.545626727</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1377854.906426727</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>857319.7881838696</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>857319.7881838696</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>852770.2457838695</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>852770.2457838695</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>850670.9069838695</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>872617.2574838696</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>868377.6166838695</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>870470.8861838696</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>857712.7799838695</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>857712.7799838695</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>765416.5198838696</v>
       </c>
       <c r="H322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>767515.8586838696</v>
       </c>
       <c r="H323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>757780.4173838696</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>761149.2036838697</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>751087.2042838697</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>748987.8654838697</v>
       </c>
       <c r="H327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>741130.1135838697</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>732687.9828838697</v>
       </c>
       <c r="H329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>732687.9828838697</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>723985.9722838696</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>707544.1877838697</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>709743.3198838697</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>709743.3198838697</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>704695.4241838697</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>705395.2037838697</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>688783.7811838697</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>690941.5813838698</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>694514.0349838698</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>690315.3573838697</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>693827.4025838698</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>695926.7413838698</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>693762.3048838698</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>683062.1620838698</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>728517.8923188368</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>731641.2815188367</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>731641.2815188367</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>751028.9883188368</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>730933.3927188368</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>724521.8335188368</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>731277.1615188367</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>770422.5577188367</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>774720.4730188367</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>878082.8761188367</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>855452.0965188367</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>838957.8990188367</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>859209.3800188367</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>859209.3800188367</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>856338.4967188367</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>845080.5683188367</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>809745.0215188367</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>811854.3603188368</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>787613.1484188368</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>759486.7914188368</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>375860.4572210484</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>375860.4572210484</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>375860.4572210484</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>372328.1639210484</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>375151.7931210484</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>362354.5294210484</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>357448.2131210484</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>357448.2131210484</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>357448.2131210484</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>350526.8411210484</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>298627.8312210484</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>298627.8312210484</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>298627.8312210484</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>353791.3346210484</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>325550.0417210484</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>325550.0417210484</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>325550.0417210484</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>326249.8213210484</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>321351.3641210484</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>346528.1306210484</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>347927.6898210485</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>347927.6898210485</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>340213.3681210484</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>343050.0206210485</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>348280.8487210484</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21894,7 +21894,7 @@
         <v>348280.8487210484</v>
       </c>
       <c r="H827">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="828" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>346181.5099210484</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>349071.4837210484</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>344872.8061210484</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>348371.7041210484</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>354027.3984210484</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>349901.0197210484</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>344978.3821210483</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>344978.3821210483</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>344978.3821210483</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>344978.3821210483</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>359170.4217210484</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>355589.4541210484</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>352764.1408210484</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>356333.2339210484</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>352056.9272210484</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>352056.9272210484</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>352056.9272210484</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>352056.9272210484</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>357009.1791210484</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>357009.1791210484</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>370715.7582210483</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>370715.7582210483</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22492,7 +22492,7 @@
         <v>367014.9495210483</v>
       </c>
       <c r="H850">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="851" spans="1:8">
@@ -22518,7 +22518,7 @@
         <v>371213.6271210483</v>
       </c>
       <c r="H851">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="852" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>380396.5872210484</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>380396.5872210484</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>392517.1464210484</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>405826.4852210484</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>405826.4852210484</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>408013.6411210484</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>408013.6411210484</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>404514.7431210484</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>402397.8872210484</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>405197.0056210484</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>409455.8888210484</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>409455.8888210484</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>410855.4480210484</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22882,7 +22882,7 @@
         <v>407959.8349210484</v>
       </c>
       <c r="H865">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="866" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>411458.7329210484</v>
       </c>
       <c r="H866">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>411458.7329210484</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>411458.7329210484</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>422524.5125210484</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>426850.7854210483</v>
       </c>
       <c r="H870">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>333534.1538716204</v>
       </c>
       <c r="H1148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>421148.3188410965</v>
       </c>
       <c r="H1166">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>186595.2377847718</v>
       </c>
       <c r="H1284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>188374.8845847718</v>
       </c>
       <c r="H1285">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>191164.7415847717</v>
       </c>
       <c r="H1286">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>191164.7415847717</v>
       </c>
       <c r="H1287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>188967.0481847718</v>
       </c>
       <c r="H1288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>187587.7180847718</v>
       </c>
       <c r="H1289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>186188.5630847718</v>
       </c>
       <c r="H1290">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>188147.5246847718</v>
       </c>
       <c r="H1291">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>186359.9001847718</v>
       </c>
       <c r="H1292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>188802.6380847718</v>
       </c>
       <c r="H1293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>186463.2088847718</v>
       </c>
       <c r="H1294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>189140.4275847718</v>
       </c>
       <c r="H1295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>189140.4275847718</v>
       </c>
       <c r="H1296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>180247.7371847718</v>
       </c>
       <c r="H1297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>180247.7371847718</v>
       </c>
       <c r="H1298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>182447.2947847718</v>
       </c>
       <c r="H1299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>180240.1389847718</v>
       </c>
       <c r="H1300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>181203.5568847718</v>
       </c>
       <c r="H1301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>182017.2540847718</v>
       </c>
       <c r="H1302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>184792.1095847718</v>
       </c>
       <c r="H1303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>169089.6159847718</v>
       </c>
       <c r="H1304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>167462.2215847718</v>
       </c>
       <c r="H1305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>171222.6993847718</v>
       </c>
       <c r="H1306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>169039.6068847718</v>
       </c>
       <c r="H1307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>171787.2742847718</v>
       </c>
       <c r="H1308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>170400.4177847718</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>194872.3136847718</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>198499.7080847718</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>200307.6101847718</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-25 IPX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-25 IPX ohlcv.xlsx
@@ -496,7 +496,7 @@
         <v>1567985.364126727</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>1534629.329526727</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1470678.995526727</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>1472357.545626727</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>1472357.545626727</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>1427112.650126727</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>1438583.604126727</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>1377854.906426727</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>857319.7881838696</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>857319.7881838696</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>852770.2457838695</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>852770.2457838695</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>872617.2574838696</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>868377.6166838695</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>765416.5198838696</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>767515.8586838696</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>757780.4173838696</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>761149.2036838697</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>751087.2042838697</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>748987.8654838697</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>741130.1135838697</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>732687.9828838697</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>732687.9828838697</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>723985.9722838696</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>707544.1877838697</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>709743.3198838697</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>709743.3198838697</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>704695.4241838697</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>705395.2037838697</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>688783.7811838697</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>690941.5813838698</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>694514.0349838698</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>690315.3573838697</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>693827.4025838698</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>695926.7413838698</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>693762.3048838698</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>683062.1620838698</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>731641.2815188367</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>731641.2815188367</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>856338.4967188367</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>845080.5683188367</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>809745.0215188367</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>811854.3603188368</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>787613.1484188368</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>759486.7914188368</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>375860.4572210484</v>
       </c>
       <c r="H802">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>375860.4572210484</v>
       </c>
       <c r="H803">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>375860.4572210484</v>
       </c>
       <c r="H804">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>372328.1639210484</v>
       </c>
       <c r="H805">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>375151.7931210484</v>
       </c>
       <c r="H806">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>362354.5294210484</v>
       </c>
       <c r="H807">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>357448.2131210484</v>
       </c>
       <c r="H808">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -22908,7 +22908,7 @@
         <v>411458.7329210484</v>
       </c>
       <c r="H866">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="867" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>411458.7329210484</v>
       </c>
       <c r="H868">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>422524.5125210484</v>
       </c>
       <c r="H869">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23012,7 +23012,7 @@
         <v>426850.7854210483</v>
       </c>
       <c r="H870">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871" spans="1:8">
@@ -30240,7 +30240,7 @@
         <v>333534.1538716204</v>
       </c>
       <c r="H1148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1149" spans="1:8">
@@ -30266,7 +30266,7 @@
         <v>341604.1815716204</v>
       </c>
       <c r="H1149">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150" spans="1:8">
@@ -30708,7 +30708,7 @@
         <v>421148.3188410965</v>
       </c>
       <c r="H1166">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1167" spans="1:8">
@@ -30734,7 +30734,7 @@
         <v>418913.2187410966</v>
       </c>
       <c r="H1167">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1168" spans="1:8">
@@ -30760,7 +30760,7 @@
         <v>418913.2187410966</v>
       </c>
       <c r="H1168">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1169" spans="1:8">
@@ -30786,7 +30786,7 @@
         <v>426402.1372410966</v>
       </c>
       <c r="H1169">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1170" spans="1:8">
@@ -30812,7 +30812,7 @@
         <v>426402.1372410966</v>
       </c>
       <c r="H1170">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1171" spans="1:8">
@@ -33776,7 +33776,7 @@
         <v>186595.2377847718</v>
       </c>
       <c r="H1284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:8">
@@ -33802,7 +33802,7 @@
         <v>188374.8845847718</v>
       </c>
       <c r="H1285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:8">
@@ -33828,7 +33828,7 @@
         <v>191164.7415847717</v>
       </c>
       <c r="H1286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:8">
@@ -33854,7 +33854,7 @@
         <v>191164.7415847717</v>
       </c>
       <c r="H1287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:8">
@@ -33880,7 +33880,7 @@
         <v>188967.0481847718</v>
       </c>
       <c r="H1288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:8">
@@ -33906,7 +33906,7 @@
         <v>187587.7180847718</v>
       </c>
       <c r="H1289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290" spans="1:8">
@@ -33932,7 +33932,7 @@
         <v>186188.5630847718</v>
       </c>
       <c r="H1290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1291" spans="1:8">
@@ -33958,7 +33958,7 @@
         <v>188147.5246847718</v>
       </c>
       <c r="H1291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1292" spans="1:8">
@@ -33984,7 +33984,7 @@
         <v>186359.9001847718</v>
       </c>
       <c r="H1292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293" spans="1:8">
@@ -34010,7 +34010,7 @@
         <v>188802.6380847718</v>
       </c>
       <c r="H1293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1294" spans="1:8">
@@ -34036,7 +34036,7 @@
         <v>186463.2088847718</v>
       </c>
       <c r="H1294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295" spans="1:8">
@@ -34062,7 +34062,7 @@
         <v>189140.4275847718</v>
       </c>
       <c r="H1295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1296" spans="1:8">
@@ -34088,7 +34088,7 @@
         <v>189140.4275847718</v>
       </c>
       <c r="H1296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1297" spans="1:8">
@@ -34114,7 +34114,7 @@
         <v>180247.7371847718</v>
       </c>
       <c r="H1297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1298" spans="1:8">
@@ -34140,7 +34140,7 @@
         <v>180247.7371847718</v>
       </c>
       <c r="H1298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1299" spans="1:8">
@@ -34166,7 +34166,7 @@
         <v>182447.2947847718</v>
       </c>
       <c r="H1299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1300" spans="1:8">
@@ -34192,7 +34192,7 @@
         <v>180240.1389847718</v>
       </c>
       <c r="H1300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1301" spans="1:8">
@@ -34218,7 +34218,7 @@
         <v>181203.5568847718</v>
       </c>
       <c r="H1301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1302" spans="1:8">
@@ -34244,7 +34244,7 @@
         <v>182017.2540847718</v>
       </c>
       <c r="H1302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1303" spans="1:8">
@@ -34270,7 +34270,7 @@
         <v>184792.1095847718</v>
       </c>
       <c r="H1303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1304" spans="1:8">
@@ -34296,7 +34296,7 @@
         <v>169089.6159847718</v>
       </c>
       <c r="H1304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1305" spans="1:8">
@@ -34322,7 +34322,7 @@
         <v>167462.2215847718</v>
       </c>
       <c r="H1305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1306" spans="1:8">
@@ -34348,7 +34348,7 @@
         <v>171222.6993847718</v>
       </c>
       <c r="H1306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1307" spans="1:8">
@@ -34374,7 +34374,7 @@
         <v>169039.6068847718</v>
       </c>
       <c r="H1307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1308" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>171787.2742847718</v>
       </c>
       <c r="H1308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>170400.4177847718</v>
       </c>
       <c r="H1309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>180239.9355847718</v>
       </c>
       <c r="H1313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>194872.3136847718</v>
       </c>
       <c r="H1314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>198499.7080847718</v>
       </c>
       <c r="H1315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>200307.6101847718</v>
       </c>
       <c r="H1316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
